--- a/Excel_Cookies_Project_Joe_Phillips.xlsx
+++ b/Excel_Cookies_Project_Joe_Phillips.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e98d9164dffd5fc0/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e98d9164dffd5fc0/Documents/Just IT/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="663" documentId="8_{1B383FC5-36D0-4AF1-850E-3335133E94D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C12561A-36EC-4B40-824B-AD1A1DF4B51B}"/>
+  <xr:revisionPtr revIDLastSave="669" documentId="8_{1B383FC5-36D0-4AF1-850E-3335133E94D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75F516E6-72FF-4D89-B95C-F23D42B3F644}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="907" xr2:uid="{10996FFD-38B0-4E71-AA07-9FDC1DF12159}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="907" firstSheet="1" activeTab="5" xr2:uid="{10996FFD-38B0-4E71-AA07-9FDC1DF12159}"/>
   </bookViews>
   <sheets>
     <sheet name="Excel Interactive Dashboard(Dat" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -5160,24 +5160,6 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -5186,7 +5168,25 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -5289,19 +5289,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -5568,7 +5556,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -5881,6 +5868,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -5914,7 +5942,61 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6513,7 +6595,7 @@
         <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -6592,7 +6674,7 @@
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent6"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -6667,6 +6749,62 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -6700,6 +6838,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C9A2-4A81-A427-1098AA52C722}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -6735,6 +6878,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C9A2-4A81-A427-1098AA52C722}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -6750,6 +6898,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-C9A2-4A81-A427-1098AA52C722}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -6765,6 +6918,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-C9A2-4A81-A427-1098AA52C722}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -7477,6 +7635,9 @@
       <c:pivotFmt>
         <c:idx val="6"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -12455,8 +12616,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name=" Product  1">
@@ -12479,7 +12640,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -12533,8 +12694,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Days (Date)">
@@ -12557,7 +12718,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -12652,8 +12813,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Country 1">
@@ -12676,7 +12837,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -12730,8 +12891,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Date 1">
@@ -12754,7 +12915,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -12844,15 +13005,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>162877</xdr:rowOff>
+      <xdr:rowOff>124776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2114550</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>807720</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>53339</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12879,16 +13040,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>815341</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>144781</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>329566</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>135255</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
@@ -12924,8 +13085,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3057526" y="4558665"/>
-              <a:ext cx="3364230" cy="1363980"/>
+              <a:off x="9227821" y="1436370"/>
+              <a:ext cx="3369945" cy="1381125"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -12972,8 +13133,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Country">
@@ -12996,7 +13157,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -13050,8 +13211,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name=" Product ">
@@ -13074,7 +13235,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -13128,8 +13289,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>34290</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+      <mc:Choice Requires="tsle">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Date">
@@ -13147,12 +13308,12 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
-              <tsle:timeslicer xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" name="Date"/>
+              <tsle:timeslicer name="Date"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -13229,10 +13390,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15445,7 +15602,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D1DE4239-A831-4FCF-8C98-3F0B77F9A5D4}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D1DE4239-A831-4FCF-8C98-3F0B77F9A5D4}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
   <location ref="A1:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -15989,7 +16146,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{051078B4-3C1E-4860-9957-0F19CCC0DB6A}" name="PivotTable2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{051078B4-3C1E-4860-9957-0F19CCC0DB6A}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A4:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0">
@@ -16476,7 +16633,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAA6DE2E-3917-46B8-9DD1-E51A1143C975}" name="PivotTable3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAA6DE2E-3917-46B8-9DD1-E51A1143C975}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A1:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -16930,7 +17087,7 @@
   <dataFields count="1">
     <dataField name="Average of Profit_Margin" fld="7" subtotal="average" baseField="1" baseItem="0" numFmtId="164"/>
   </dataFields>
-  <chartFormats count="3">
+  <chartFormats count="7">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -16964,6 +17121,54 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="1" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -16978,7 +17183,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0DFFE39F-AE3A-46A1-8609-5842F6A8C1CE}" name="PivotTable4" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0DFFE39F-AE3A-46A1-8609-5842F6A8C1CE}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
   <location ref="A1:H7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -17546,7 +17751,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{87584DC4-833C-4FB9-85FD-82B3114E3647}" name="PivotTable5" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{87584DC4-833C-4FB9-85FD-82B3114E3647}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A1:H8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -18245,14 +18450,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E231576-346F-4C19-B4B2-1AF10480786A}" name="Table1" displayName="Table1" ref="A1:H176" totalsRowShown="0">
   <autoFilter ref="A1:H176" xr:uid="{8E231576-346F-4C19-B4B2-1AF10480786A}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D64CE333-AC5E-4B3F-9603-3C6BF85B108C}" name="Country" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{805F9CD9-68AF-4836-AF23-815488CEDD35}" name=" Product " dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{7D425021-4135-4305-AEF3-12BA05722DDC}" name="Units Sold" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{A34D0BE1-2B22-4253-9592-7C1B4E2808F2}" name=" Revenue " dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{D64CE333-AC5E-4B3F-9603-3C6BF85B108C}" name="Country" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{805F9CD9-68AF-4836-AF23-815488CEDD35}" name=" Product " dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{7D425021-4135-4305-AEF3-12BA05722DDC}" name="Units Sold" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{A34D0BE1-2B22-4253-9592-7C1B4E2808F2}" name=" Revenue " dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{20CC936B-BAB4-43DE-9433-D31AA32BFF4C}" name="Cost " dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{189A48D9-019B-4B58-BAF2-32C142411F69}" name=" Profit " dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{2D9DC2E4-73F0-4958-8524-EF2786A64470}" name="Date" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{7B1E8A9A-1EB5-48A0-ABBE-2BE6720949D5}" name="Profit_Margin" dataDxfId="7">
+    <tableColumn id="6" xr3:uid="{189A48D9-019B-4B58-BAF2-32C142411F69}" name=" Profit " dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{2D9DC2E4-73F0-4958-8524-EF2786A64470}" name="Date" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{7B1E8A9A-1EB5-48A0-ABBE-2BE6720949D5}" name="Profit_Margin" dataDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[ Profit ]]/Table1[[#This Row],[Cost ]]*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -18613,8 +18818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B473FC7-6BB3-486D-BB37-CF981E16A20C}">
   <dimension ref="A1:H176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35509,7 +35714,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35766,8 +35971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFA5749-78B6-4C5D-A53C-7F6039A3CF91}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36188,27 +36393,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Desc xmlns="6d04a45f-f1b9-406a-9213-8bd43bea4e14" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6d04a45f-f1b9-406a-9213-8bd43bea4e14">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="98aa415c-2006-4516-a246-2ced286c8b14" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AB0884575CF66D46B2CD31394E223ECB" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="38d1fc7a98c29b7cd6999964816e0339">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6d04a45f-f1b9-406a-9213-8bd43bea4e14" xmlns:ns3="98aa415c-2006-4516-a246-2ced286c8b14" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25f6248ed02cc85fbb63cc2795bbccc4" ns2:_="" ns3:_="">
     <xsd:import namespace="6d04a45f-f1b9-406a-9213-8bd43bea4e14"/>
@@ -36417,26 +36601,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{226060A7-8EAF-4B19-B04E-84D1C3A334E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6d04a45f-f1b9-406a-9213-8bd43bea4e14"/>
-    <ds:schemaRef ds:uri="98aa415c-2006-4516-a246-2ced286c8b14"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5DF361E-4578-4F64-A978-EE22779C1E3F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Desc xmlns="6d04a45f-f1b9-406a-9213-8bd43bea4e14" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6d04a45f-f1b9-406a-9213-8bd43bea4e14">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="98aa415c-2006-4516-a246-2ced286c8b14" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB3240F5-4497-40D2-8A45-E80AE80F026D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36453,4 +36639,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5DF361E-4578-4F64-A978-EE22779C1E3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{226060A7-8EAF-4B19-B04E-84D1C3A334E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6d04a45f-f1b9-406a-9213-8bd43bea4e14"/>
+    <ds:schemaRef ds:uri="98aa415c-2006-4516-a246-2ced286c8b14"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>